--- a/createworkbook.xlsx
+++ b/createworkbook.xlsx
@@ -112,6 +112,9 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="11.08984375" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1" ht="20.0" customHeight="true">
       <c r="A1" t="s" s="1">
@@ -180,7 +183,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection autoFilter="true"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/createworkbook.xlsx
+++ b/createworkbook.xlsx
@@ -114,6 +114,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="2" max="2" width="11.08984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.9609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.0" customHeight="true">
